--- a/biology/Zoologie/Archaeocidaris/Archaeocidaris.xlsx
+++ b/biology/Zoologie/Archaeocidaris/Archaeocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeocidaris est un genre éteint d'oursins réguliers fossiles, datant du Paléozoïque.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archéodicaridae sont un groupe d'oursins très ancien, et donc la classification n'est pas encore complètement établie : il pourrait être paraphylétique.
 Le test (coquille) est circulaire et probablement légèrement aplati dorsalement. 
@@ -522,8 +536,8 @@
 Les quelques premières plaques adapicales des adultes ne portent pas de tubercule primaire, mais seulement une fine granulation. Toutes les autres portent un unique tubercule primaire imperforé et non crénulé, entouré d'une aréole large et légèrement déprimée. Un cercle de tubercules scrobiculaires est plus ou moins présent, surtout sur les plaques aborales, mais confluent sur les plaques orales (les tubercules sont confinés aux marges des plaques). Il n'y a généralement pas de tuberculation ou de granulation au-delà de ces cercles.
 Le péristome est modérément large, partiellement recouvert de plaques. 
 La lanterne d'Aristote est grosse et bien développée. Les pyramides y sont importantes, avec des foramen magnum peu profonds, et de larges dents en U portant plusieurs pointes à leur extrémité.
-Les radioles sont longues, creuses, et sans cortex. Elles peuvent être ornementées d'épines[1].
-Ce groupe semble avoir vécu du Carbonifère au Permien[1].
+Les radioles sont longues, creuses, et sans cortex. Elles peuvent être ornementées d'épines.
+Ce groupe semble avoir vécu du Carbonifère au Permien.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 avril 2014) :
 † Archaeocidaris aliquantula Kier, 1958a
 † Archaeocidaris barroisi Mathieu, 1949
 † Archaeocidaris cowleyi Boos, 1929
